--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swalker\Documents\GitHub\fme-desktop-data-integration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swalker\Documents\GitHub\FMETraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="107">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -322,6 +322,24 @@
   </si>
   <si>
     <t>3.05.WorkspaceComponents.md</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>DesktopBasic6WrapUp</t>
+  </si>
+  <si>
+    <t>6.01.ProductInfo.md</t>
+  </si>
+  <si>
+    <t>6.02.CommunityInfo.md</t>
+  </si>
+  <si>
+    <t>3.16.ProductInfo.md</t>
+  </si>
+  <si>
+    <t>3.17.CommunityInfo.md</t>
   </si>
 </sst>
 </file>
@@ -1130,20 +1148,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="34.90625" customWidth="1"/>
+    <col min="2" max="2" width="34.81640625" customWidth="1"/>
     <col min="3" max="5" width="6.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="32.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="51.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.453125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="51.453125" style="2" customWidth="1"/>
     <col min="9" max="9" width="63.1796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1231,11 +1249,11 @@
         <v>0.01.ModuleOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H52" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
+        <f t="shared" ref="H3:H55" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
         <v/>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I52" si="2">F3&amp;"/"&amp;G3</f>
+        <f t="shared" ref="I3:I55" si="2">F3&amp;"/"&amp;G3</f>
         <v>Integration0About/0.01.ModuleOverview.md</v>
       </c>
     </row>
@@ -2445,7 +2463,7 @@
         <v>85</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f t="shared" ref="G42:G52" si="7">IF(ISBLANK(A42),C42&amp;"."&amp;E42&amp;"."&amp;B42&amp;".md",IF(ISBLANK(C42),B42,C42&amp;"."&amp;E42&amp;"."&amp;RIGHT(B42,LEN(B42)-2)))</f>
+        <f t="shared" ref="G42:G56" si="7">IF(ISBLANK(A42),C42&amp;"."&amp;E42&amp;"."&amp;B42&amp;".md",IF(ISBLANK(C42),B42,C42&amp;"."&amp;E42&amp;"."&amp;RIGHT(B42,LEN(B42)-2)))</f>
         <v>3.05.DataTransformation.md</v>
       </c>
       <c r="I42" s="2" t="str">
@@ -2645,7 +2663,7 @@
         <v>Integration3LabExercises/3.11.Exercise6.md</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>81</v>
       </c>
@@ -2674,7 +2692,7 @@
         <v>Integration3LabExercises/3.12.DataIntegrationScenario.md</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>97</v>
       </c>
@@ -2703,7 +2721,7 @@
         <v>Integration3LabExercises/3.13.ScenarioWalkthrough.md</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>98</v>
       </c>
@@ -2732,7 +2750,7 @@
         <v>Integration3LabExercises/3.14.AdditionalProcedures.md</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>68</v>
       </c>
@@ -2759,6 +2777,97 @@
       <c r="I52" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Integration3LabExercises/3.15.LabQuestions.md</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic6WrapUp/6.01.ProductInfo.md</v>
+      </c>
+      <c r="I53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.16.ProductInfo.md</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic6WrapUp/6.02.CommunityInfo.md</v>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.17.CommunityInfo.md</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>3.18.Feedback.md</v>
+      </c>
+      <c r="H55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.18.Feedback.md</v>
       </c>
     </row>
   </sheetData>
